--- a/SimulatedData-new/Rho=1/ALLINONE_rho=1_Results.xlsx
+++ b/SimulatedData-new/Rho=1/ALLINONE_rho=1_Results.xlsx
@@ -1,19 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pietro\Desktop\Pietro\Politecnico\Tesi\Thesis-Code\SimulatedData-new\Rho=1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DA54FC-DE78-4AEE-8D04-51CF14CD33E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>rho = 0.95 average QR</t>
   </si>
@@ -138,13 +131,68 @@
   </si>
   <si>
     <t>n1 =  998 , phi =  1.05 , CQR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  98 , phi =  0.95 , QR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  98 , phi =  0.95 , CQR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  98 , phi =  1 , QR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  98 , phi =  1 , CQR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  98 , phi =  1.02 , QR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  98 , phi =  1.02 , CQR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  198 , phi =  0.95 , QR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  198 , phi =  0.95 , CQR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  198 , phi =  1 , QR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  198 , phi =  1 , CQR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  198 , phi =  1.02 , QR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  198 , phi =  1.02 , CQR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  998 , phi =  0.95 , QR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  998 , phi =  0.95 , CQR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  998 , phi =  1 , QR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  998 , phi =  1 , CQR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  998 , phi =  1.02 , QR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  998 , phi =  1.02 , CQR AR(1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -177,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -470,20 +518,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -497,505 +545,505 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>2.0330000000000001E-2</v>
-      </c>
-      <c r="F2">
-        <v>1.7177777777777799E-2</v>
-      </c>
-      <c r="G2">
-        <v>2.2909090909091E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E2" t="n">
+        <v>0.0161127</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0176718181818182</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0142071111111112</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>2.4740000000000002E-2</v>
-      </c>
-      <c r="F3">
-        <v>2.7490909090909101E-2</v>
-      </c>
-      <c r="G3">
-        <v>2.1377777777777902E-2</v>
+      <c r="E3" t="n">
+        <v>0.03247455</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0376755</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0246731250000001</v>
       </c>
       <c r="L3" t="s">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <f>(E2+E11+E20)/3</f>
         <v>9.3800000000000203E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="L4" t="s">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <f>(E3+E12+E21)/3</f>
         <v>1.2376666666666668E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>5.4350000000000002E-2</v>
-      </c>
-      <c r="F5">
-        <v>5.5155555555555499E-2</v>
-      </c>
-      <c r="G5">
-        <v>5.3690909090909199E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.09828485</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.101557545454545</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.094284888888889</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
         <v>9</v>
       </c>
-      <c r="E6">
-        <v>8.0560000000000007E-2</v>
-      </c>
-      <c r="F6">
-        <v>9.2281818181818201E-2</v>
-      </c>
-      <c r="G6">
-        <v>6.6233333333333394E-2</v>
+      <c r="E6" t="n">
+        <v>0.12983995</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.139128</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.118487888888889</v>
       </c>
       <c r="L6" t="s">
         <v>2</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <f>(E5+E14+E23)/3</f>
         <v>2.4855000000000016E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="L7" t="s">
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <f>(E6+E15+E24)/3</f>
         <v>3.9580000000000011E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+        <v>39</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
         <v>9</v>
       </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0.20067499999999999</v>
-      </c>
-      <c r="F8">
-        <v>0.20130999999999999</v>
-      </c>
-      <c r="G8">
-        <v>0.20004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E8" t="n">
+        <v>0.24418305</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.252993272727273</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.233415</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0.25857999999999998</v>
-      </c>
-      <c r="F9">
-        <v>0.28477000000000002</v>
-      </c>
-      <c r="G9">
-        <v>0.23239000000000001</v>
+        <v>40</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.25687165</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.279890363636364</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.228737666666667</v>
       </c>
       <c r="L9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="L10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>16</v>
-      </c>
-      <c r="C11">
+        <v>41</v>
+      </c>
+      <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>5.0950000000000197E-3</v>
-      </c>
-      <c r="F11">
-        <v>7.8499999999999508E-3</v>
-      </c>
-      <c r="G11">
-        <v>4.2153846153846599E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.00688355000000003</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.00794991666666666</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00528400000000008</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
+        <v>42</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>1.0175E-2</v>
-      </c>
-      <c r="F12">
-        <v>1.2672727272727301E-2</v>
-      </c>
-      <c r="G12">
-        <v>7.1222222222222797E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0137987</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0172626153846154</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.00736571428571436</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="M13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>1.6064999999999999E-2</v>
-      </c>
-      <c r="F14">
-        <v>2.52142857142857E-2</v>
-      </c>
-      <c r="G14">
-        <v>1.1138461538461601E-2</v>
+        <v>43</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.05799845</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0637439090909091</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0509762222222223</v>
       </c>
       <c r="L14" t="s">
         <v>11</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <f>(B2+B5+B11+B14+B20+B23)/6/20%</f>
         <v>55.833333333333329</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15">
+        <v>44</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11</v>
+      </c>
+      <c r="D15" t="n">
         <v>9</v>
       </c>
-      <c r="E15">
-        <v>3.073E-2</v>
-      </c>
-      <c r="F15">
-        <v>3.3974999999999998E-2</v>
-      </c>
-      <c r="G15">
-        <v>2.8566666666666699E-2</v>
+      <c r="E15" t="n">
+        <v>0.08990495</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0987183636363636</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0791330000000001</v>
       </c>
       <c r="L15" t="s">
         <v>12</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <f>(B3+B6+B12+B15+B21+B24)/6/20%</f>
         <v>41.666666666666664</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+        <v>45</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
         <v>10</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>10</v>
       </c>
-      <c r="E17">
-        <v>0.20357500000000001</v>
-      </c>
-      <c r="F17">
-        <v>0.21876999999999999</v>
-      </c>
-      <c r="G17">
-        <v>0.18837999999999999</v>
+      <c r="E17" t="n">
+        <v>0.24341195</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.272691</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.2141329</v>
       </c>
       <c r="L17" t="s">
         <v>13</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <f>(C2+C5+C11+C14+C20+C23)/6/20%</f>
         <v>17.5</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>0.26365499999999997</v>
-      </c>
-      <c r="F18">
-        <v>0.27756999999999998</v>
-      </c>
-      <c r="G18">
-        <v>0.24973999999999999</v>
+        <v>46</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2610602</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.270270181818182</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.249803555555556</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <f>(C3+C6+C12+C15+C21+C24)/6/20%</f>
         <v>30.833333333333332</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>2.7150000000000399E-3</v>
-      </c>
-      <c r="F20">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="G20">
-        <v>2.9823529411765201E-3</v>
+        <v>47</v>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.000908200000000035</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.000984571428571424</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.000867076923076979</v>
       </c>
       <c r="L20" t="s">
         <v>15</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <f>(D2+D5+D11+D14+D20+D23)/6/20%</f>
         <v>26.666666666666664</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>2.215E-3</v>
-      </c>
-      <c r="F21">
-        <v>1.9874999999999498E-3</v>
-      </c>
-      <c r="G21">
-        <v>2.3666666666667001E-3</v>
+        <v>48</v>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.000980950000000016</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.00165749999999997</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.000529916666666713</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <f>(D3+D6+D12+D15+D21+D24)/6/20%</f>
         <v>27.5</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>19</v>
-      </c>
-      <c r="C23">
+        <v>49</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.00780180000000003</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.00922881818181818</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.00605766666666674</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>4.1500000000000399E-3</v>
-      </c>
-      <c r="F23">
-        <v>4.1999999999999902E-3</v>
-      </c>
-      <c r="G23">
-        <v>4.4000000000000497E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24">
+      <c r="C24" t="n">
+        <v>11</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.02088915</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0244994545454545</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0164765555555556</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>11</v>
+      </c>
+      <c r="D26" t="n">
         <v>9</v>
       </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>7.4500000000000304E-3</v>
-      </c>
-      <c r="F24">
-        <v>7.8416666666666704E-3</v>
-      </c>
-      <c r="G24">
-        <v>6.8625000000000803E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0.52249999999999996</v>
-      </c>
-      <c r="F26">
-        <v>0.52249999999999996</v>
-      </c>
-      <c r="G26" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E26" t="n">
+        <v>0.2415355</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.250922</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.230063111111111</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>11</v>
-      </c>
-      <c r="D27">
+        <v>52</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>11</v>
+      </c>
+      <c r="D27" t="n">
         <v>9</v>
       </c>
-      <c r="E27">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="F27">
-        <v>0.35909090909090902</v>
-      </c>
-      <c r="G27">
-        <v>0.21666666666666701</v>
+      <c r="E27" t="n">
+        <v>0.26699665</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.272357363636364</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.260444666666667</v>
       </c>
     </row>
   </sheetData>
